--- a/premise/data/additional_inventories/lci-hydrogen-smr-atr-biogas.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-smr-atr-biogas.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C672D02C-DEDF-6D44-9B66-9BA916152F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF4989C-F45F-C949-8047-012E82950B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1260" yWindow="760" windowWidth="27040" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$M$244</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1" iterateDelta="0.01" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -821,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
+      <selection activeCell="B162" sqref="B162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2883,7 +2883,7 @@
         <v>82</v>
       </c>
       <c r="B100">
-        <v>-1.3016123468668273</v>
+        <v>0</v>
       </c>
       <c r="C100" t="s">
         <v>52</v>
@@ -3411,7 +3411,7 @@
         <v>82</v>
       </c>
       <c r="B129">
-        <v>-0.61975263847726747</v>
+        <v>0</v>
       </c>
       <c r="C129" t="s">
         <v>86</v>
@@ -4009,7 +4009,7 @@
         <v>82</v>
       </c>
       <c r="B161">
-        <v>-0.15423412693187019</v>
+        <v>0</v>
       </c>
       <c r="C161" t="s">
         <v>86</v>

--- a/premise/data/additional_inventories/lci-hydrogen-smr-atr-biogas.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-smr-atr-biogas.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11116"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF4989C-F45F-C949-8047-012E82950B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA56CB2-F652-7F4E-8C37-A9ABBA36AB9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="760" windowWidth="27040" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33120" yWindow="-320" windowWidth="27040" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$M$244</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$M$204</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="145">
   <si>
     <t>Database</t>
   </si>
@@ -307,12 +307,6 @@
     <t>loc</t>
   </si>
   <si>
-    <t>allocation</t>
-  </si>
-  <si>
-    <t>simapro name</t>
-  </si>
-  <si>
     <t>Acenaphthene</t>
   </si>
   <si>
@@ -358,15 +352,9 @@
     <t>range of values from different references</t>
   </si>
   <si>
-    <t>P. Jansohn: 15 ppm (industrial value)</t>
-  </si>
-  <si>
     <t>market for gas power plant, combined cycle, 400MW electrical</t>
   </si>
   <si>
-    <t>Materials/fuels</t>
-  </si>
-  <si>
     <t>n_plant = 1/(lifetime*annual fuel input)</t>
   </si>
   <si>
@@ -379,15 +367,9 @@
     <t>market for sodium hydroxide, without water, in 50% solution state</t>
   </si>
   <si>
-    <t>Biogas, from biowaste</t>
-  </si>
-  <si>
     <t>treatment of residue from cooling tower, sanitary landfill</t>
   </si>
   <si>
-    <t>Waste to treatment</t>
-  </si>
-  <si>
     <t>90% capture rate</t>
   </si>
   <si>
@@ -454,12 +436,6 @@
     <t>carbon dioxide, captured from natural gas, post, 200km pipeline, storage 1000m</t>
   </si>
   <si>
-    <t>carbon dioxide, captured from natural gas, post, 200km pipeline, storage 1000m U</t>
-  </si>
-  <si>
-    <t>electricity production, at biomethane-fired power plant, NGCC</t>
-  </si>
-  <si>
     <t>electricity production, at biomethane-fired power plant, post, pipeline 200km, storage 1000m</t>
   </si>
   <si>
@@ -473,6 +449,27 @@
   </si>
   <si>
     <t>Biomethane: 0.699 kg/m3 at standard condition @ 15°C, 1.0325 bar. LHV by mass: 47.5 MJ/kg. LHV by volume at standard condition: 36.0 MJ/Nm3.</t>
+  </si>
+  <si>
+    <t>scale</t>
+  </si>
+  <si>
+    <t>gas power plant, combined cycle, 400MW electrical</t>
+  </si>
+  <si>
+    <t>hydrochloric acid, without water, in 30% solution state</t>
+  </si>
+  <si>
+    <t>sodium hydroxide, without water, in 50% solution state</t>
+  </si>
+  <si>
+    <t>residue from cooling tower</t>
+  </si>
+  <si>
+    <t>NOx retained, by selective catalytic reduction</t>
+  </si>
+  <si>
+    <t>reference prduct</t>
   </si>
 </sst>
 </file>
@@ -819,10 +816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M244"/>
+  <dimension ref="A1:K204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="B162" sqref="B162"/>
+    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="A200" sqref="A200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -846,7 +843,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -878,7 +875,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -891,10 +888,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B9" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -902,7 +899,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -938,7 +935,7 @@
     </row>
     <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -956,7 +953,7 @@
         <v>16</v>
       </c>
       <c r="H13" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1091,7 +1088,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B19">
         <v>2.5884448839268264</v>
@@ -1481,7 +1478,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B34">
         <v>6.1496909953258223</v>
@@ -1499,12 +1496,12 @@
         <v>19</v>
       </c>
       <c r="H34" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B35">
         <f>(B4/47.5)*120</f>
@@ -1523,7 +1520,7 @@
         <v>19</v>
       </c>
       <c r="H35" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -1712,7 +1709,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B44">
         <v>2.0292014459767036E-4</v>
@@ -1730,7 +1727,7 @@
         <v>19</v>
       </c>
       <c r="H44" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -1876,7 +1873,7 @@
         <v>82</v>
       </c>
       <c r="B51">
-        <v>-0.58836764785345819</v>
+        <v>0</v>
       </c>
       <c r="C51" t="s">
         <v>52</v>
@@ -1899,7 +1896,7 @@
         <v>1</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -1923,7 +1920,7 @@
         <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1944,10 +1941,10 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B60" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -1955,7 +1952,7 @@
         <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -1991,7 +1988,7 @@
     </row>
     <row r="64" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -2009,7 +2006,7 @@
         <v>16</v>
       </c>
       <c r="H64" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
@@ -2144,7 +2141,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B70">
         <v>8.9153165218958783</v>
@@ -2534,7 +2531,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B85">
         <f>(120*B55)/47.5</f>
@@ -2553,7 +2550,7 @@
         <v>19</v>
       </c>
       <c r="H85" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
@@ -2719,7 +2716,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B93">
         <v>2.0292014459767033E-4</v>
@@ -2737,7 +2734,7 @@
         <v>19</v>
       </c>
       <c r="H93" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
@@ -2906,7 +2903,7 @@
         <v>1</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
@@ -2930,7 +2927,7 @@
         <v>5</v>
       </c>
       <c r="B105" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
@@ -2943,10 +2940,10 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B107" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
@@ -2954,7 +2951,7 @@
         <v>10</v>
       </c>
       <c r="B108" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3009,12 +3006,12 @@
         <v>16</v>
       </c>
       <c r="H111" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B112">
         <v>6.84</v>
@@ -3247,7 +3244,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B122">
         <v>2.0292014459767036E-4</v>
@@ -3265,7 +3262,7 @@
         <v>19</v>
       </c>
       <c r="H122" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
@@ -3431,7 +3428,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B130">
         <f>(120*B103)/47.5</f>
@@ -3450,7 +3447,7 @@
         <v>19</v>
       </c>
       <c r="H130" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3458,7 +3455,7 @@
         <v>1</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
@@ -3482,7 +3479,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
@@ -3495,10 +3492,10 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B137" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
@@ -3506,7 +3503,7 @@
         <v>10</v>
       </c>
       <c r="B138" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3561,12 +3558,12 @@
         <v>16</v>
       </c>
       <c r="H141" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B142">
         <v>0.58838389214647391</v>
@@ -3638,7 +3635,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B145">
         <v>8.318133856294887</v>
@@ -3656,7 +3653,7 @@
         <v>19</v>
       </c>
       <c r="H145" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
@@ -3845,7 +3842,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B154">
         <v>2.0292014459767036E-4</v>
@@ -3863,7 +3860,7 @@
         <v>19</v>
       </c>
       <c r="H154" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
@@ -4004,7 +4001,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>82</v>
       </c>
@@ -4027,9 +4024,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B162">
         <f>(120*B133)/47.5</f>
@@ -4048,18 +4045,18 @@
         <v>19</v>
       </c>
       <c r="H162" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>2</v>
       </c>
@@ -4067,7 +4064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>4</v>
       </c>
@@ -4075,7 +4072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>5</v>
       </c>
@@ -4083,7 +4080,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>6</v>
       </c>
@@ -4091,7 +4088,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>8</v>
       </c>
@@ -4099,12 +4096,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="170" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>12</v>
       </c>
@@ -4130,18 +4127,18 @@
         <v>89</v>
       </c>
       <c r="I171" t="s">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="J171" t="s">
+        <v>144</v>
+      </c>
+      <c r="K171" t="s">
         <v>10</v>
       </c>
-      <c r="K171" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="172" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B172">
         <v>1</v>
@@ -4153,24 +4150,21 @@
         <v>20</v>
       </c>
       <c r="E172" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F172" t="s">
         <v>16</v>
       </c>
-      <c r="I172">
-        <v>100</v>
-      </c>
       <c r="J172" t="s">
         <v>27</v>
       </c>
       <c r="K172" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B173">
         <v>4.6073299999999991E-12</v>
@@ -4179,7 +4173,7 @@
         <v>9</v>
       </c>
       <c r="E173" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F173" t="s">
         <v>29</v>
@@ -4191,16 +4185,24 @@
         <v>-27.862953173275841</v>
       </c>
       <c r="I173">
-        <v>0.80471895621705025</v>
+        <f>LN(SQRT(EXP(
+SQRT(
++POWER(LN(1.05),2)
++POWER(LN(1.2),2)
++POWER(LN(1),2)
++POWER(LN(1.01),2)
++POWER(LN(1.2),2)
++POWER(LN(1.2),2)
++POWER(LN(1.5),2)
+)
+)))</f>
+        <v>0.25816898211842121</v>
       </c>
       <c r="K173" t="s">
-        <v>94</v>
-      </c>
-      <c r="L173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>25</v>
       </c>
@@ -4211,7 +4213,7 @@
         <v>9</v>
       </c>
       <c r="E174" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F174" t="s">
         <v>29</v>
@@ -4223,16 +4225,24 @@
         <v>-20.946409388260619</v>
       </c>
       <c r="I174">
-        <v>1.0397207708399181</v>
+        <f t="shared" ref="I174:I204" si="0">LN(SQRT(EXP(
+SQRT(
++POWER(LN(1.05),2)
++POWER(LN(1.2),2)
++POWER(LN(1),2)
++POWER(LN(1.01),2)
++POWER(LN(1.2),2)
++POWER(LN(1.2),2)
++POWER(LN(1.5),2)
+)
+)))</f>
+        <v>0.25816898211842121</v>
       </c>
       <c r="K174" t="s">
-        <v>95</v>
-      </c>
-      <c r="L174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>30</v>
       </c>
@@ -4243,7 +4253,7 @@
         <v>9</v>
       </c>
       <c r="E175" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F175" t="s">
         <v>29</v>
@@ -4255,16 +4265,14 @@
         <v>-15.927475291349671</v>
       </c>
       <c r="I175">
-        <v>1.0397207708399181</v>
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
       </c>
       <c r="K175" t="s">
-        <v>95</v>
-      </c>
-      <c r="L175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>31</v>
       </c>
@@ -4275,7 +4283,7 @@
         <v>9</v>
       </c>
       <c r="E176" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F176" t="s">
         <v>29</v>
@@ -4287,16 +4295,14 @@
         <v>-20.80014688128237</v>
       </c>
       <c r="I176">
-        <v>0.80471895621705025</v>
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
       </c>
       <c r="K176" t="s">
-        <v>94</v>
-      </c>
-      <c r="L176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>32</v>
       </c>
@@ -4307,7 +4313,7 @@
         <v>9</v>
       </c>
       <c r="E177" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F177" t="s">
         <v>29</v>
@@ -4319,16 +4325,14 @@
         <v>-28.267787963052381</v>
       </c>
       <c r="I177">
-        <v>0.80471895621705025</v>
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
       </c>
       <c r="K177" t="s">
-        <v>94</v>
-      </c>
-      <c r="L177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>33</v>
       </c>
@@ -4339,7 +4343,7 @@
         <v>9</v>
       </c>
       <c r="E178" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F178" t="s">
         <v>29</v>
@@ -4351,22 +4355,20 @@
         <v>-13.892391602300229</v>
       </c>
       <c r="I178">
-        <v>0.80471895621705025</v>
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
       </c>
       <c r="K178" t="s">
-        <v>94</v>
-      </c>
-      <c r="L178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B179">
-        <f>0.058*(B201*47.5)</f>
-        <v>0.28688662692307698</v>
+        <f>0.058*(B203*47.5)*0.1</f>
+        <v>3.6448650000000006E-2</v>
       </c>
       <c r="D179" t="s">
         <v>9</v>
@@ -4381,21 +4383,19 @@
         <v>2</v>
       </c>
       <c r="H179">
-        <v>-2.8824035882469881</v>
+        <v>-5.1849886812410331</v>
       </c>
       <c r="I179">
-        <v>2.439508208471609E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
       </c>
       <c r="K179" t="s">
-        <v>96</v>
-      </c>
-      <c r="L179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B180">
         <v>1.2782000000000001E-5</v>
@@ -4404,7 +4404,7 @@
         <v>9</v>
       </c>
       <c r="E180" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F180" t="s">
         <v>29</v>
@@ -4416,16 +4416,14 @@
         <v>-13.027053197600001</v>
       </c>
       <c r="I180">
-        <v>0.20273255405408211</v>
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
       </c>
       <c r="K180" t="s">
-        <v>98</v>
-      </c>
-      <c r="L180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>35</v>
       </c>
@@ -4436,7 +4434,7 @@
         <v>9</v>
       </c>
       <c r="E181" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F181" t="s">
         <v>29</v>
@@ -4448,18 +4446,16 @@
         <v>-13.81551055796427</v>
       </c>
       <c r="I181">
-        <v>0.54930614433405478</v>
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
       </c>
       <c r="K181" t="s">
-        <v>99</v>
-      </c>
-      <c r="L181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B182">
         <v>1.6849E-16</v>
@@ -4468,7 +4464,7 @@
         <v>9</v>
       </c>
       <c r="E182" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F182" t="s">
         <v>29</v>
@@ -4480,18 +4476,16 @@
         <v>-38.079235843906353</v>
       </c>
       <c r="I182">
-        <v>1.0397207708399181</v>
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
       </c>
       <c r="K182" t="s">
-        <v>95</v>
-      </c>
-      <c r="L182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B183">
         <v>7.9596999999999994E-6</v>
@@ -4500,7 +4494,7 @@
         <v>9</v>
       </c>
       <c r="E183" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F183" t="s">
         <v>29</v>
@@ -4512,16 +4506,14 @@
         <v>-13.500699818124239</v>
       </c>
       <c r="I183">
-        <v>0.80471895621705025</v>
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
       </c>
       <c r="K183" t="s">
-        <v>94</v>
-      </c>
-      <c r="L183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>36</v>
       </c>
@@ -4532,7 +4524,7 @@
         <v>9</v>
       </c>
       <c r="E184" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F184" t="s">
         <v>29</v>
@@ -4544,18 +4536,16 @@
         <v>-17.223732554563391</v>
       </c>
       <c r="I184">
-        <v>0.80471895621705025</v>
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
       </c>
       <c r="K184" t="s">
-        <v>94</v>
-      </c>
-      <c r="L184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B185">
         <v>3.0502500000000001</v>
@@ -4564,7 +4554,7 @@
         <v>18</v>
       </c>
       <c r="E185" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F185" t="s">
         <v>29</v>
@@ -4576,18 +4566,16 @@
         <v>-0.64435701639051324</v>
       </c>
       <c r="I185">
-        <v>2.439508208471609E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
       </c>
       <c r="K185" t="s">
-        <v>103</v>
-      </c>
-      <c r="L185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B186">
         <v>4.6073299999999995E-6</v>
@@ -4596,7 +4584,7 @@
         <v>9</v>
       </c>
       <c r="E186" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F186" t="s">
         <v>29</v>
@@ -4608,16 +4596,14 @@
         <v>-14.04744261531156</v>
       </c>
       <c r="I186">
-        <v>0.80471895621705025</v>
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
       </c>
       <c r="K186" t="s">
-        <v>94</v>
-      </c>
-      <c r="L186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>37</v>
       </c>
@@ -4628,7 +4614,7 @@
         <v>9</v>
       </c>
       <c r="E187" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F187" t="s">
         <v>29</v>
@@ -4640,16 +4626,14 @@
         <v>-24.22982373426639</v>
       </c>
       <c r="I187">
-        <v>0.80471895621705025</v>
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
       </c>
       <c r="K187" t="s">
-        <v>105</v>
-      </c>
-      <c r="L187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>85</v>
       </c>
@@ -4660,7 +4644,7 @@
         <v>9</v>
       </c>
       <c r="E188" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F188" t="s">
         <v>29</v>
@@ -4672,27 +4656,25 @@
         <v>-13.81551055796427</v>
       </c>
       <c r="I188">
-        <v>0.80471895621705025</v>
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
       </c>
       <c r="K188" t="s">
-        <v>106</v>
-      </c>
-      <c r="L188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>39</v>
       </c>
       <c r="B189">
-        <v>1.5803199999999998E-4</v>
+        <v>5.7925699999999993E-5</v>
       </c>
       <c r="D189" t="s">
         <v>9</v>
       </c>
       <c r="E189" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F189" t="s">
         <v>29</v>
@@ -4701,19 +4683,17 @@
         <v>2</v>
       </c>
       <c r="H189">
-        <v>-10.51229358466232</v>
+        <v>-11.515929973990531</v>
       </c>
       <c r="I189">
-        <v>0.20273255405408211</v>
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
       </c>
       <c r="K189" t="s">
-        <v>107</v>
-      </c>
-      <c r="L189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>40</v>
       </c>
@@ -4724,7 +4704,7 @@
         <v>9</v>
       </c>
       <c r="E190" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F190" t="s">
         <v>29</v>
@@ -4736,16 +4716,14 @@
         <v>-18.64382429526658</v>
       </c>
       <c r="I190">
-        <v>1.0397207708399181</v>
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
       </c>
       <c r="K190" t="s">
-        <v>95</v>
-      </c>
-      <c r="L190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>41</v>
       </c>
@@ -4756,7 +4734,7 @@
         <v>9</v>
       </c>
       <c r="E191" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F191" t="s">
         <v>29</v>
@@ -4768,16 +4746,14 @@
         <v>-14.508657738524221</v>
       </c>
       <c r="I191">
-        <v>0.54930614433405478</v>
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
       </c>
       <c r="K191" t="s">
-        <v>99</v>
-      </c>
-      <c r="L191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>42</v>
       </c>
@@ -4788,7 +4764,7 @@
         <v>9</v>
       </c>
       <c r="E192" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F192" t="s">
         <v>29</v>
@@ -4800,16 +4776,14 @@
         <v>-13.67574861558912</v>
       </c>
       <c r="I192">
-        <v>0.80471895621705025</v>
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
       </c>
       <c r="K192" t="s">
-        <v>94</v>
-      </c>
-      <c r="L192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>43</v>
       </c>
@@ -4820,7 +4794,7 @@
         <v>9</v>
       </c>
       <c r="E193" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F193" t="s">
         <v>29</v>
@@ -4832,16 +4806,14 @@
         <v>-14.165068034134141</v>
       </c>
       <c r="I193">
-        <v>0.80471895621705025</v>
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
       </c>
       <c r="K193" t="s">
-        <v>94</v>
-      </c>
-      <c r="L193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>44</v>
       </c>
@@ -4852,7 +4824,7 @@
         <v>9</v>
       </c>
       <c r="E194" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F194" t="s">
         <v>29</v>
@@ -4864,16 +4836,14 @@
         <v>-17.950677114706629</v>
       </c>
       <c r="I194">
-        <v>1.0397207708399181</v>
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
       </c>
       <c r="K194" t="s">
-        <v>95</v>
-      </c>
-      <c r="L194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>45</v>
       </c>
@@ -4884,7 +4854,7 @@
         <v>9</v>
       </c>
       <c r="E195" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F195" t="s">
         <v>29</v>
@@ -4896,16 +4866,14 @@
         <v>-14.508657738524221</v>
       </c>
       <c r="I195">
-        <v>4.7655089902162509E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
       </c>
       <c r="K195" t="s">
-        <v>96</v>
-      </c>
-      <c r="L195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>46</v>
       </c>
@@ -4916,7 +4884,7 @@
         <v>9</v>
       </c>
       <c r="E196" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F196" t="s">
         <v>29</v>
@@ -4928,100 +4896,89 @@
         <v>-20.31780072883825</v>
       </c>
       <c r="I196">
-        <v>0.80471895621705025</v>
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
       </c>
       <c r="K196" t="s">
-        <v>94</v>
-      </c>
-      <c r="L196">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>132</v>
+      </c>
+      <c r="B197">
+        <f>0.054*(B203*47.5)*0.9</f>
+        <v>0.30541455000000001</v>
+      </c>
+      <c r="C197" t="s">
+        <v>3</v>
+      </c>
+      <c r="D197" t="s">
+        <v>9</v>
+      </c>
+      <c r="F197" t="s">
+        <v>19</v>
+      </c>
+      <c r="G197">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
-        <v>108</v>
-      </c>
-      <c r="B197">
+      <c r="H197">
+        <v>5.04E-2</v>
+      </c>
+      <c r="I197">
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
+      </c>
+      <c r="K197" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>113</v>
+      </c>
+      <c r="B198">
+        <v>4.4736999999999999E-4</v>
+      </c>
+      <c r="C198" t="s">
+        <v>21</v>
+      </c>
+      <c r="D198" t="s">
+        <v>9</v>
+      </c>
+      <c r="F198" t="s">
+        <v>19</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
+      <c r="H198">
+        <v>7.7000000000000001E-5</v>
+      </c>
+      <c r="I198">
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
+      </c>
+      <c r="J198" t="s">
+        <v>143</v>
+      </c>
+      <c r="K198" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>105</v>
+      </c>
+      <c r="B199">
         <v>1.27239E-11</v>
-      </c>
-      <c r="C197" t="s">
-        <v>21</v>
-      </c>
-      <c r="D197" t="s">
-        <v>8</v>
-      </c>
-      <c r="E197" t="s">
-        <v>109</v>
-      </c>
-      <c r="F197" t="s">
-        <v>19</v>
-      </c>
-      <c r="G197">
-        <v>2</v>
-      </c>
-      <c r="H197">
-        <v>-26.847119572100141</v>
-      </c>
-      <c r="I197">
-        <v>0.3465735902799727</v>
-      </c>
-      <c r="K197" t="s">
-        <v>110</v>
-      </c>
-      <c r="L197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
-        <v>111</v>
-      </c>
-      <c r="B198">
-        <v>1.4525000000000001E-5</v>
-      </c>
-      <c r="C198" t="s">
-        <v>3</v>
-      </c>
-      <c r="D198" t="s">
-        <v>9</v>
-      </c>
-      <c r="E198" t="s">
-        <v>109</v>
-      </c>
-      <c r="F198" t="s">
-        <v>19</v>
-      </c>
-      <c r="G198">
-        <v>2</v>
-      </c>
-      <c r="H198">
-        <v>-12.899219826090119</v>
-      </c>
-      <c r="I198">
-        <v>0.1075556898084728</v>
-      </c>
-      <c r="K198" t="s">
-        <v>112</v>
-      </c>
-      <c r="L198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
-        <v>113</v>
-      </c>
-      <c r="B199">
-        <v>1.1619999999999999E-5</v>
       </c>
       <c r="C199" t="s">
         <v>21</v>
       </c>
       <c r="D199" t="s">
-        <v>9</v>
-      </c>
-      <c r="E199" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="F199" t="s">
         <v>19</v>
@@ -5030,33 +4987,41 @@
         <v>2</v>
       </c>
       <c r="H199">
-        <v>-13.12236337740433</v>
+        <v>-26.847119572100141</v>
       </c>
       <c r="I199">
-        <v>0.1075556898084728</v>
+        <f>LN(SQRT(EXP(
+SQRT(
++POWER(LN(1.05),2)
++POWER(LN(1.2),2)
++POWER(LN(1),2)
++POWER(LN(1.01),2)
++POWER(LN(1.2),2)
++POWER(LN(1.2),2)
++POWER(LN(3),2)
+)
+)))</f>
+        <v>0.57209088006881903</v>
+      </c>
+      <c r="J199" t="s">
+        <v>139</v>
       </c>
       <c r="K199" t="s">
-        <v>112</v>
-      </c>
-      <c r="L199">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="B200">
-        <v>2.9049999999999998</v>
+        <v>1.4525000000000001E-5</v>
       </c>
       <c r="C200" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D200" t="s">
         <v>9</v>
-      </c>
-      <c r="E200" t="s">
-        <v>109</v>
       </c>
       <c r="F200" t="s">
         <v>19</v>
@@ -5065,37 +5030,31 @@
         <v>2</v>
       </c>
       <c r="H200">
-        <v>-0.69314718055994529</v>
+        <v>-12.899219826090119</v>
       </c>
       <c r="I200">
-        <v>0.45814536593707761</v>
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
+      </c>
+      <c r="J200" t="s">
+        <v>140</v>
       </c>
       <c r="K200" t="s">
-        <v>106</v>
-      </c>
-      <c r="L200">
-        <v>0</v>
-      </c>
-      <c r="M200" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="B201">
-        <f>0.148974358974359*0.699</f>
-        <v>0.10413307692307694</v>
+        <v>1.1619999999999999E-5</v>
       </c>
       <c r="C201" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D201" t="s">
         <v>9</v>
-      </c>
-      <c r="E201" t="s">
-        <v>109</v>
       </c>
       <c r="F201" t="s">
         <v>19</v>
@@ -5104,24 +5063,25 @@
         <v>2</v>
       </c>
       <c r="H201">
-        <v>2.564102564102564E-2</v>
+        <v>-13.12236337740433</v>
       </c>
       <c r="I201">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
+      </c>
+      <c r="J201" t="s">
+        <v>141</v>
       </c>
       <c r="K201" t="s">
-        <v>114</v>
-      </c>
-      <c r="L201">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B202">
-        <v>-5.8099999999999994E-6</v>
+        <v>2.9049999999999998</v>
       </c>
       <c r="C202" t="s">
         <v>17</v>
@@ -5129,9 +5089,6 @@
       <c r="D202" t="s">
         <v>9</v>
       </c>
-      <c r="E202" t="s">
-        <v>116</v>
-      </c>
       <c r="F202" t="s">
         <v>19</v>
       </c>
@@ -5139,1182 +5096,88 @@
         <v>2</v>
       </c>
       <c r="H202">
+        <v>-0.69314718055994529</v>
+      </c>
+      <c r="I202">
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
+      </c>
+      <c r="J202" t="s">
+        <v>118</v>
+      </c>
+      <c r="K202" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>134</v>
+      </c>
+      <c r="B203">
+        <f>0.18*0.735</f>
+        <v>0.1323</v>
+      </c>
+      <c r="C203" t="s">
+        <v>3</v>
+      </c>
+      <c r="D203" t="s">
+        <v>9</v>
+      </c>
+      <c r="F203" t="s">
+        <v>19</v>
+      </c>
+      <c r="G203">
+        <v>2</v>
+      </c>
+      <c r="H203">
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="I203">
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
+      </c>
+      <c r="J203" t="s">
+        <v>135</v>
+      </c>
+      <c r="K203" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>110</v>
+      </c>
+      <c r="B204">
+        <v>-5.8099999999999994E-6</v>
+      </c>
+      <c r="C204" t="s">
+        <v>17</v>
+      </c>
+      <c r="D204" t="s">
+        <v>9</v>
+      </c>
+      <c r="F204" t="s">
+        <v>19</v>
+      </c>
+      <c r="G204">
+        <v>2</v>
+      </c>
+      <c r="H204">
         <v>-13.81551055796427</v>
       </c>
-      <c r="I202">
-        <v>1.0397207708399181</v>
-      </c>
-      <c r="K202" t="s">
-        <v>95</v>
-      </c>
-      <c r="L202">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A204" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
-        <v>2</v>
-      </c>
-      <c r="B205" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A206" t="s">
-        <v>4</v>
-      </c>
-      <c r="B206">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A207" t="s">
-        <v>5</v>
-      </c>
-      <c r="B207" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
-        <v>6</v>
-      </c>
-      <c r="B208" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A209" t="s">
-        <v>8</v>
-      </c>
-      <c r="B209" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="210" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A210" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A211" t="s">
-        <v>12</v>
-      </c>
-      <c r="B211" t="s">
-        <v>13</v>
-      </c>
-      <c r="C211" t="s">
-        <v>2</v>
-      </c>
-      <c r="D211" t="s">
-        <v>8</v>
-      </c>
-      <c r="E211" t="s">
-        <v>24</v>
-      </c>
-      <c r="F211" t="s">
-        <v>6</v>
-      </c>
-      <c r="G211" t="s">
-        <v>88</v>
-      </c>
-      <c r="H211" t="s">
-        <v>89</v>
-      </c>
-      <c r="I211" t="s">
-        <v>90</v>
-      </c>
-      <c r="J211" t="s">
-        <v>10</v>
-      </c>
-      <c r="K211" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="212" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A212" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B212">
-        <v>1</v>
-      </c>
-      <c r="C212" t="s">
-        <v>3</v>
-      </c>
-      <c r="D212" t="s">
-        <v>20</v>
-      </c>
-      <c r="E212" t="s">
-        <v>122</v>
-      </c>
-      <c r="F212" t="s">
-        <v>16</v>
-      </c>
-      <c r="I212">
-        <v>100</v>
-      </c>
-      <c r="J212" t="s">
-        <v>27</v>
-      </c>
-      <c r="K212" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A213" t="s">
-        <v>92</v>
-      </c>
-      <c r="B213">
-        <v>4.6073299999999991E-12</v>
-      </c>
-      <c r="D213" t="s">
-        <v>9</v>
-      </c>
-      <c r="E213" t="s">
+      <c r="I204">
+        <f t="shared" si="0"/>
+        <v>0.25816898211842121</v>
+      </c>
+      <c r="J204" t="s">
+        <v>142</v>
+      </c>
+      <c r="K204" t="s">
         <v>93</v>
       </c>
-      <c r="F213" t="s">
-        <v>29</v>
-      </c>
-      <c r="G213">
-        <v>2</v>
-      </c>
-      <c r="H213">
-        <v>-27.862953173275841</v>
-      </c>
-      <c r="I213">
-        <v>0.80471895621705025</v>
-      </c>
-      <c r="K213" t="s">
-        <v>94</v>
-      </c>
-      <c r="L213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A214" t="s">
-        <v>25</v>
-      </c>
-      <c r="B214">
-        <v>4.6479999999999997E-9</v>
-      </c>
-      <c r="D214" t="s">
-        <v>9</v>
-      </c>
-      <c r="E214" t="s">
-        <v>93</v>
-      </c>
-      <c r="F214" t="s">
-        <v>29</v>
-      </c>
-      <c r="G214">
-        <v>2</v>
-      </c>
-      <c r="H214">
-        <v>-20.946409388260619</v>
-      </c>
-      <c r="I214">
-        <v>1.0397207708399181</v>
-      </c>
-      <c r="K214" t="s">
-        <v>95</v>
-      </c>
-      <c r="L214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A215" t="s">
-        <v>30</v>
-      </c>
-      <c r="B215">
-        <v>7.0301000000000005E-7</v>
-      </c>
-      <c r="D215" t="s">
-        <v>9</v>
-      </c>
-      <c r="E215" t="s">
-        <v>93</v>
-      </c>
-      <c r="F215" t="s">
-        <v>29</v>
-      </c>
-      <c r="G215">
-        <v>2</v>
-      </c>
-      <c r="H215">
-        <v>-15.927475291349671</v>
-      </c>
-      <c r="I215">
-        <v>1.0397207708399181</v>
-      </c>
-      <c r="K215" t="s">
-        <v>95</v>
-      </c>
-      <c r="L215">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A216" t="s">
-        <v>31</v>
-      </c>
-      <c r="B216">
-        <v>5.3800599999999993E-9</v>
-      </c>
-      <c r="D216" t="s">
-        <v>9</v>
-      </c>
-      <c r="E216" t="s">
-        <v>93</v>
-      </c>
-      <c r="F216" t="s">
-        <v>29</v>
-      </c>
-      <c r="G216">
-        <v>2</v>
-      </c>
-      <c r="H216">
-        <v>-20.80014688128237</v>
-      </c>
-      <c r="I216">
-        <v>0.80471895621705025</v>
-      </c>
-      <c r="K216" t="s">
-        <v>94</v>
-      </c>
-      <c r="L216">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A217" t="s">
-        <v>32</v>
-      </c>
-      <c r="B217">
-        <v>3.0734899999999997E-12</v>
-      </c>
-      <c r="D217" t="s">
-        <v>9</v>
-      </c>
-      <c r="E217" t="s">
-        <v>93</v>
-      </c>
-      <c r="F217" t="s">
-        <v>29</v>
-      </c>
-      <c r="G217">
-        <v>2</v>
-      </c>
-      <c r="H217">
-        <v>-28.267787963052381</v>
-      </c>
-      <c r="I217">
-        <v>0.80471895621705025</v>
-      </c>
-      <c r="K217" t="s">
-        <v>94</v>
-      </c>
-      <c r="L217">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A218" t="s">
-        <v>33</v>
-      </c>
-      <c r="B218">
-        <v>5.3800599999999993E-6</v>
-      </c>
-      <c r="D218" t="s">
-        <v>9</v>
-      </c>
-      <c r="E218" t="s">
-        <v>93</v>
-      </c>
-      <c r="F218" t="s">
-        <v>29</v>
-      </c>
-      <c r="G218">
-        <v>2</v>
-      </c>
-      <c r="H218">
-        <v>-13.892391602300229</v>
-      </c>
-      <c r="I218">
-        <v>0.80471895621705025</v>
-      </c>
-      <c r="K218" t="s">
-        <v>94</v>
-      </c>
-      <c r="L218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A219" t="s">
-        <v>133</v>
-      </c>
-      <c r="B219">
-        <f>0.058*(B243*47.5)*0.1</f>
-        <v>2.8688662692307701E-2</v>
-      </c>
-      <c r="D219" t="s">
-        <v>9</v>
-      </c>
-      <c r="E219" t="s">
-        <v>28</v>
-      </c>
-      <c r="F219" t="s">
-        <v>29</v>
-      </c>
-      <c r="G219">
-        <v>2</v>
-      </c>
-      <c r="H219">
-        <v>-5.1849886812410331</v>
-      </c>
-      <c r="I219">
-        <v>2.439508208471609E-2</v>
-      </c>
-      <c r="K219" t="s">
-        <v>117</v>
-      </c>
-      <c r="L219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A220" t="s">
-        <v>97</v>
-      </c>
-      <c r="B220">
-        <v>1.2782000000000001E-5</v>
-      </c>
-      <c r="D220" t="s">
-        <v>9</v>
-      </c>
-      <c r="E220" t="s">
-        <v>93</v>
-      </c>
-      <c r="F220" t="s">
-        <v>29</v>
-      </c>
-      <c r="G220">
-        <v>2</v>
-      </c>
-      <c r="H220">
-        <v>-13.027053197600001</v>
-      </c>
-      <c r="I220">
-        <v>0.20273255405408211</v>
-      </c>
-      <c r="K220" t="s">
-        <v>98</v>
-      </c>
-      <c r="L220">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A221" t="s">
-        <v>35</v>
-      </c>
-      <c r="B221">
-        <v>5.8099999999999994E-6</v>
-      </c>
-      <c r="D221" t="s">
-        <v>9</v>
-      </c>
-      <c r="E221" t="s">
-        <v>93</v>
-      </c>
-      <c r="F221" t="s">
-        <v>29</v>
-      </c>
-      <c r="G221">
-        <v>2</v>
-      </c>
-      <c r="H221">
-        <v>-13.81551055796427</v>
-      </c>
-      <c r="I221">
-        <v>0.54930614433405478</v>
-      </c>
-      <c r="K221" t="s">
-        <v>99</v>
-      </c>
-      <c r="L221">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A222" t="s">
-        <v>100</v>
-      </c>
-      <c r="B222">
-        <v>1.6849E-16</v>
-      </c>
-      <c r="D222" t="s">
-        <v>9</v>
-      </c>
-      <c r="E222" t="s">
-        <v>93</v>
-      </c>
-      <c r="F222" t="s">
-        <v>29</v>
-      </c>
-      <c r="G222">
-        <v>2</v>
-      </c>
-      <c r="H222">
-        <v>-38.079235843906353</v>
-      </c>
-      <c r="I222">
-        <v>1.0397207708399181</v>
-      </c>
-      <c r="K222" t="s">
-        <v>95</v>
-      </c>
-      <c r="L222">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A223" t="s">
-        <v>101</v>
-      </c>
-      <c r="B223">
-        <v>7.9596999999999994E-6</v>
-      </c>
-      <c r="D223" t="s">
-        <v>9</v>
-      </c>
-      <c r="E223" t="s">
-        <v>93</v>
-      </c>
-      <c r="F223" t="s">
-        <v>29</v>
-      </c>
-      <c r="G223">
-        <v>2</v>
-      </c>
-      <c r="H223">
-        <v>-13.500699818124239</v>
-      </c>
-      <c r="I223">
-        <v>0.80471895621705025</v>
-      </c>
-      <c r="K223" t="s">
-        <v>94</v>
-      </c>
-      <c r="L223">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A224" t="s">
-        <v>36</v>
-      </c>
-      <c r="B224">
-        <v>1.9231099999999998E-7</v>
-      </c>
-      <c r="D224" t="s">
-        <v>9</v>
-      </c>
-      <c r="E224" t="s">
-        <v>93</v>
-      </c>
-      <c r="F224" t="s">
-        <v>29</v>
-      </c>
-      <c r="G224">
-        <v>2</v>
-      </c>
-      <c r="H224">
-        <v>-17.223732554563391</v>
-      </c>
-      <c r="I224">
-        <v>0.80471895621705025</v>
-      </c>
-      <c r="K224" t="s">
-        <v>94</v>
-      </c>
-      <c r="L224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A225" t="s">
-        <v>102</v>
-      </c>
-      <c r="B225">
-        <v>3.0502500000000001</v>
-      </c>
-      <c r="D225" t="s">
-        <v>18</v>
-      </c>
-      <c r="E225" t="s">
-        <v>93</v>
-      </c>
-      <c r="F225" t="s">
-        <v>29</v>
-      </c>
-      <c r="G225">
-        <v>2</v>
-      </c>
-      <c r="H225">
-        <v>-0.64435701639051324</v>
-      </c>
-      <c r="I225">
-        <v>2.439508208471609E-2</v>
-      </c>
-      <c r="K225" t="s">
-        <v>103</v>
-      </c>
-      <c r="L225">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A226" t="s">
-        <v>104</v>
-      </c>
-      <c r="B226">
-        <v>4.6073299999999995E-6</v>
-      </c>
-      <c r="D226" t="s">
-        <v>9</v>
-      </c>
-      <c r="E226" t="s">
-        <v>93</v>
-      </c>
-      <c r="F226" t="s">
-        <v>29</v>
-      </c>
-      <c r="G226">
-        <v>2</v>
-      </c>
-      <c r="H226">
-        <v>-14.04744261531156</v>
-      </c>
-      <c r="I226">
-        <v>0.80471895621705025</v>
-      </c>
-      <c r="K226" t="s">
-        <v>94</v>
-      </c>
-      <c r="L226">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A227" t="s">
-        <v>37</v>
-      </c>
-      <c r="B227">
-        <v>1.7429999999999998E-10</v>
-      </c>
-      <c r="D227" t="s">
-        <v>9</v>
-      </c>
-      <c r="E227" t="s">
-        <v>93</v>
-      </c>
-      <c r="F227" t="s">
-        <v>29</v>
-      </c>
-      <c r="G227">
-        <v>2</v>
-      </c>
-      <c r="H227">
-        <v>-24.22982373426639</v>
-      </c>
-      <c r="I227">
-        <v>0.80471895621705025</v>
-      </c>
-      <c r="K227" t="s">
-        <v>105</v>
-      </c>
-      <c r="L227">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A228" t="s">
-        <v>85</v>
-      </c>
-      <c r="B228">
-        <v>5.8099999999999994E-6</v>
-      </c>
-      <c r="D228" t="s">
-        <v>9</v>
-      </c>
-      <c r="E228" t="s">
-        <v>93</v>
-      </c>
-      <c r="F228" t="s">
-        <v>29</v>
-      </c>
-      <c r="G228">
-        <v>2</v>
-      </c>
-      <c r="H228">
-        <v>-13.81551055796427</v>
-      </c>
-      <c r="I228">
-        <v>0.80471895621705025</v>
-      </c>
-      <c r="K228" t="s">
-        <v>106</v>
-      </c>
-      <c r="L228">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A229" t="s">
-        <v>39</v>
-      </c>
-      <c r="B229">
-        <v>5.7925699999999993E-5</v>
-      </c>
-      <c r="D229" t="s">
-        <v>9</v>
-      </c>
-      <c r="E229" t="s">
-        <v>93</v>
-      </c>
-      <c r="F229" t="s">
-        <v>29</v>
-      </c>
-      <c r="G229">
-        <v>2</v>
-      </c>
-      <c r="H229">
-        <v>-11.515929973990531</v>
-      </c>
-      <c r="I229">
-        <v>0.20273255405408211</v>
-      </c>
-      <c r="K229" t="s">
-        <v>118</v>
-      </c>
-      <c r="L229">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A230" t="s">
-        <v>40</v>
-      </c>
-      <c r="B230">
-        <v>4.6479999999999997E-8</v>
-      </c>
-      <c r="D230" t="s">
-        <v>9</v>
-      </c>
-      <c r="E230" t="s">
-        <v>93</v>
-      </c>
-      <c r="F230" t="s">
-        <v>29</v>
-      </c>
-      <c r="G230">
-        <v>2</v>
-      </c>
-      <c r="H230">
-        <v>-18.64382429526658</v>
-      </c>
-      <c r="I230">
-        <v>1.0397207708399181</v>
-      </c>
-      <c r="K230" t="s">
-        <v>95</v>
-      </c>
-      <c r="L230">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A231" t="s">
-        <v>41</v>
-      </c>
-      <c r="B231">
-        <v>2.9049999999999997E-6</v>
-      </c>
-      <c r="D231" t="s">
-        <v>9</v>
-      </c>
-      <c r="E231" t="s">
-        <v>93</v>
-      </c>
-      <c r="F231" t="s">
-        <v>29</v>
-      </c>
-      <c r="G231">
-        <v>2</v>
-      </c>
-      <c r="H231">
-        <v>-14.508657738524221</v>
-      </c>
-      <c r="I231">
-        <v>0.54930614433405478</v>
-      </c>
-      <c r="K231" t="s">
-        <v>99</v>
-      </c>
-      <c r="L231">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A232" t="s">
-        <v>42</v>
-      </c>
-      <c r="B232">
-        <v>6.6814999999999995E-6</v>
-      </c>
-      <c r="D232" t="s">
-        <v>9</v>
-      </c>
-      <c r="E232" t="s">
-        <v>93</v>
-      </c>
-      <c r="F232" t="s">
-        <v>29</v>
-      </c>
-      <c r="G232">
-        <v>2</v>
-      </c>
-      <c r="H232">
-        <v>-13.67574861558912</v>
-      </c>
-      <c r="I232">
-        <v>0.80471895621705025</v>
-      </c>
-      <c r="K232" t="s">
-        <v>94</v>
-      </c>
-      <c r="L232">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A233" t="s">
-        <v>43</v>
-      </c>
-      <c r="B233">
-        <v>4.0960499999999995E-6</v>
-      </c>
-      <c r="D233" t="s">
-        <v>9</v>
-      </c>
-      <c r="E233" t="s">
-        <v>93</v>
-      </c>
-      <c r="F233" t="s">
-        <v>29</v>
-      </c>
-      <c r="G233">
-        <v>2</v>
-      </c>
-      <c r="H233">
-        <v>-14.165068034134141</v>
-      </c>
-      <c r="I233">
-        <v>0.80471895621705025</v>
-      </c>
-      <c r="K233" t="s">
-        <v>94</v>
-      </c>
-      <c r="L233">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A234" t="s">
-        <v>44</v>
-      </c>
-      <c r="B234">
-        <v>9.2959999999999993E-8</v>
-      </c>
-      <c r="D234" t="s">
-        <v>9</v>
-      </c>
-      <c r="E234" t="s">
-        <v>93</v>
-      </c>
-      <c r="F234" t="s">
-        <v>29</v>
-      </c>
-      <c r="G234">
-        <v>2</v>
-      </c>
-      <c r="H234">
-        <v>-17.950677114706629</v>
-      </c>
-      <c r="I234">
-        <v>1.0397207708399181</v>
-      </c>
-      <c r="K234" t="s">
-        <v>95</v>
-      </c>
-      <c r="L234">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A235" t="s">
-        <v>45</v>
-      </c>
-      <c r="B235">
-        <v>2.9049999999999997E-6</v>
-      </c>
-      <c r="D235" t="s">
-        <v>9</v>
-      </c>
-      <c r="E235" t="s">
-        <v>93</v>
-      </c>
-      <c r="F235" t="s">
-        <v>29</v>
-      </c>
-      <c r="G235">
-        <v>2</v>
-      </c>
-      <c r="H235">
-        <v>-14.508657738524221</v>
-      </c>
-      <c r="I235">
-        <v>4.7655089902162509E-2</v>
-      </c>
-      <c r="K235" t="s">
-        <v>96</v>
-      </c>
-      <c r="L235">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A236" t="s">
-        <v>46</v>
-      </c>
-      <c r="B236">
-        <v>8.714999999999999E-9</v>
-      </c>
-      <c r="D236" t="s">
-        <v>9</v>
-      </c>
-      <c r="E236" t="s">
-        <v>93</v>
-      </c>
-      <c r="F236" t="s">
-        <v>29</v>
-      </c>
-      <c r="G236">
-        <v>2</v>
-      </c>
-      <c r="H236">
-        <v>-20.31780072883825</v>
-      </c>
-      <c r="I236">
-        <v>0.80471895621705025</v>
-      </c>
-      <c r="K236" t="s">
-        <v>94</v>
-      </c>
-      <c r="L236">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A237" t="s">
-        <v>138</v>
-      </c>
-      <c r="B237">
-        <f>0.058*(B243*47.5)*0.9</f>
-        <v>0.25819796423076929</v>
-      </c>
-      <c r="C237" t="s">
-        <v>3</v>
-      </c>
-      <c r="D237" t="s">
-        <v>9</v>
-      </c>
-      <c r="E237" t="s">
-        <v>109</v>
-      </c>
-      <c r="F237" t="s">
-        <v>19</v>
-      </c>
-      <c r="G237">
-        <v>0</v>
-      </c>
-      <c r="H237">
-        <v>5.04E-2</v>
-      </c>
-      <c r="K237" t="s">
-        <v>117</v>
-      </c>
-      <c r="M237" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A238" t="s">
-        <v>119</v>
-      </c>
-      <c r="B238">
-        <v>4.4736999999999999E-4</v>
-      </c>
-      <c r="C238" t="s">
-        <v>21</v>
-      </c>
-      <c r="D238" t="s">
-        <v>9</v>
-      </c>
-      <c r="E238" t="s">
-        <v>109</v>
-      </c>
-      <c r="F238" t="s">
-        <v>19</v>
-      </c>
-      <c r="G238">
-        <v>0</v>
-      </c>
-      <c r="H238">
-        <v>7.7000000000000001E-5</v>
-      </c>
-      <c r="K238" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A239" t="s">
-        <v>108</v>
-      </c>
-      <c r="B239">
-        <v>1.27239E-11</v>
-      </c>
-      <c r="C239" t="s">
-        <v>21</v>
-      </c>
-      <c r="D239" t="s">
-        <v>8</v>
-      </c>
-      <c r="E239" t="s">
-        <v>109</v>
-      </c>
-      <c r="F239" t="s">
-        <v>19</v>
-      </c>
-      <c r="G239">
-        <v>2</v>
-      </c>
-      <c r="H239">
-        <v>-26.847119572100141</v>
-      </c>
-      <c r="I239">
-        <v>0.3465735902799727</v>
-      </c>
-      <c r="K239" t="s">
-        <v>110</v>
-      </c>
-      <c r="L239">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A240" t="s">
-        <v>111</v>
-      </c>
-      <c r="B240">
-        <v>1.4525000000000001E-5</v>
-      </c>
-      <c r="C240" t="s">
-        <v>3</v>
-      </c>
-      <c r="D240" t="s">
-        <v>9</v>
-      </c>
-      <c r="E240" t="s">
-        <v>109</v>
-      </c>
-      <c r="F240" t="s">
-        <v>19</v>
-      </c>
-      <c r="G240">
-        <v>2</v>
-      </c>
-      <c r="H240">
-        <v>-12.899219826090119</v>
-      </c>
-      <c r="I240">
-        <v>0.1075556898084728</v>
-      </c>
-      <c r="K240" t="s">
-        <v>112</v>
-      </c>
-      <c r="L240">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A241" t="s">
-        <v>113</v>
-      </c>
-      <c r="B241">
-        <v>1.1619999999999999E-5</v>
-      </c>
-      <c r="C241" t="s">
-        <v>21</v>
-      </c>
-      <c r="D241" t="s">
-        <v>9</v>
-      </c>
-      <c r="E241" t="s">
-        <v>109</v>
-      </c>
-      <c r="F241" t="s">
-        <v>19</v>
-      </c>
-      <c r="G241">
-        <v>2</v>
-      </c>
-      <c r="H241">
-        <v>-13.12236337740433</v>
-      </c>
-      <c r="I241">
-        <v>0.1075556898084728</v>
-      </c>
-      <c r="K241" t="s">
-        <v>112</v>
-      </c>
-      <c r="L241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A242" t="s">
-        <v>123</v>
-      </c>
-      <c r="B242">
-        <v>2.9049999999999998</v>
-      </c>
-      <c r="C242" t="s">
-        <v>17</v>
-      </c>
-      <c r="D242" t="s">
-        <v>9</v>
-      </c>
-      <c r="E242" t="s">
-        <v>109</v>
-      </c>
-      <c r="F242" t="s">
-        <v>19</v>
-      </c>
-      <c r="G242">
-        <v>2</v>
-      </c>
-      <c r="H242">
-        <v>-0.69314718055994529</v>
-      </c>
-      <c r="I242">
-        <v>0.45814536593707761</v>
-      </c>
-      <c r="K242" t="s">
-        <v>106</v>
-      </c>
-      <c r="L242">
-        <v>0</v>
-      </c>
-      <c r="M242" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A243" t="s">
-        <v>142</v>
-      </c>
-      <c r="B243">
-        <f>0.148974358974359*0.699</f>
-        <v>0.10413307692307694</v>
-      </c>
-      <c r="C243" t="s">
-        <v>3</v>
-      </c>
-      <c r="D243" t="s">
-        <v>9</v>
-      </c>
-      <c r="E243" t="s">
-        <v>109</v>
-      </c>
-      <c r="F243" t="s">
-        <v>19</v>
-      </c>
-      <c r="G243">
-        <v>2</v>
-      </c>
-      <c r="H243">
-        <v>2.564102564102564E-2</v>
-      </c>
-      <c r="I243">
-        <v>0</v>
-      </c>
-      <c r="K243" t="s">
-        <v>121</v>
-      </c>
-      <c r="L243">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A244" t="s">
-        <v>115</v>
-      </c>
-      <c r="B244">
-        <v>-5.8099999999999994E-6</v>
-      </c>
-      <c r="C244" t="s">
-        <v>17</v>
-      </c>
-      <c r="D244" t="s">
-        <v>9</v>
-      </c>
-      <c r="E244" t="s">
-        <v>116</v>
-      </c>
-      <c r="F244" t="s">
-        <v>19</v>
-      </c>
-      <c r="G244">
-        <v>2</v>
-      </c>
-      <c r="H244">
-        <v>-13.81551055796427</v>
-      </c>
-      <c r="I244">
-        <v>1.0397207708399181</v>
-      </c>
-      <c r="K244" t="s">
-        <v>95</v>
-      </c>
-      <c r="L244">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M244" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:M204" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
